--- a/QALD9-Plus-testing/zero-shot-entity-aligned/dbpedia-to-wikidata/comparison_results_llama_zero_shot_dbpedia_wikidata.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/dbpedia-to-wikidata/comparison_results_llama_zero_shot_dbpedia_wikidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>Which movies star both Liz Taylor and Richard Burton?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['101']</t>
+          <t>['http://www.wikidata.org/entity/Q1198059', 'http://www.wikidata.org/entity/Q1235065', 'http://www.wikidata.org/entity/Q1527877', 'http://www.wikidata.org/entity/Q1630930', 'http://www.wikidata.org/entity/Q2497114', 'http://www.wikidata.org/entity/Q325643', 'http://www.wikidata.org/entity/Q426314', 'http://www.wikidata.org/entity/Q4430', 'http://www.wikidata.org/entity/Q568696', 'http://www.wikidata.org/entity/Q634049', 'http://www.wikidata.org/entity/Q668569', 'http://www.wikidata.org/entity/Q910226']</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>Who developed Minecraft?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+          <t>['http://www.wikidata.org/entity/Q1129295', 'http://www.wikidata.org/entity/Q2283']</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['5348554000']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['5348554000']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -598,37 +598,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1735-10-30T00:00:00Z']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['1735-10-30T00:00:00Z']</t>
+          <t>['1978-04-09T00:00:00Z']</t>
         </is>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['1616-05-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['1616-05-03T00:00:00Z']</t>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,77 +638,77 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Who developed the video game World of Warcraft?</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q178824']</t>
+          <t>['http://www.wikidata.org/entity/Q2462124']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q178824']</t>
+          <t>['http://www.wikidata.org/entity/Q115934307', 'http://www.wikidata.org/entity/Q123134707', 'http://www.wikidata.org/entity/Q123352703', 'http://www.wikidata.org/entity/Q1262898', 'http://www.wikidata.org/entity/Q18011281', 'http://www.wikidata.org/entity/Q20714076', 'http://www.wikidata.org/entity/Q286493', 'http://www.wikidata.org/entity/Q54869832', 'http://www.wikidata.org/entity/Q60789091', 'http://www.wikidata.org/entity/Q7847774', 'http://www.wikidata.org/entity/Q844324']</t>
         </is>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/Q9215']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q212862']</t>
+          <t>['http://www.wikidata.org/entity/statement/q726382-0A348895-379F-4E2A-AFD9-380A4C1C0319']</t>
         </is>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['1735-10-30T00:00:00Z']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://www.wikidata.org/entity/statement/Q11806-2F4377AA-A070-4D69-832D-A6DEF2974FEC', 'http://www.wikidata.org/entity/statement/Q11806-58E133E5-A431-40BC-B35C-FEC551EC6023', 'http://www.wikidata.org/entity/statement/q11806-872F246A-D5B5-46A6-8867-0E7FD43052BD']</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>In which country is Mecca located?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q851']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q851']</t>
+          <t>['447706209']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,57 +718,57 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Give me all Swedish holidays.</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1348730', 'http://www.wikidata.org/entity/Q39864', 'http://www.wikidata.org/entity/Q40317']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
+          <t>['http://www.wikidata.org/entity/Q178824']</t>
         </is>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>What is the net income of Apple?</t>
+          <t>Which university did Angela Merkel attend?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['96995000000']</t>
+          <t>['http://www.wikidata.org/entity/Q154804']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['96995000000']</t>
+          <t>['http://www.wikidata.org/entity/statement/Q567-0ae62197-49e4-06fe-445e-fb919c006224', 'http://www.wikidata.org/entity/statement/q567-4B6CD1BC-80CB-4356-BD73-10B52A81364C', 'http://www.wikidata.org/entity/statement/Q567-82c164a5-4c3d-6db2-b720-4693755c8f9a', 'http://www.wikidata.org/entity/statement/Q567-d2f1c5fa-43df-0f2c-dd6f-b6c9efdcbe5e']</t>
         </is>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+          <t>['http://www.wikidata.org/entity/Q212862']</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -778,37 +778,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q16']</t>
+          <t>['9606916']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/statement/q6386177-7D783DAD-4FD5-4844-964A-4B2707AFAC4F']</t>
+          <t>['9606916']</t>
         </is>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q77237']</t>
+          <t>['http://www.wikidata.org/entity/Q851']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,37 +838,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>Which city has the least inhabitants?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
+          <t>['http://www.wikidata.org/entity/Q2590944']</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>What is the net income of Apple?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131016']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q16']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+          <t>['http://www.wikidata.org/entity/Q16']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q188492']</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>How many people live in the capital of Australia?</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['381488']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['381488']</t>
+          <t>['http://www.wikidata.org/entity/Q77237']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,20 +938,240 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>How many employees does IBM have?</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['352600']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1196157', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q44408', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['352600']</t>
+          <t>['http://www.wikidata.org/entity/Q1009788', 'http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q107325', 'http://www.wikidata.org/entity/Q115175910', 'http://www.wikidata.org/entity/Q1185312', 'http://www.wikidata.org/entity/Q1198750', 'http://www.wikidata.org/entity/Q1199648', 'http://www.wikidata.org/entity/Q1307044', 'http://www.wikidata.org/entity/Q1421355', 'http://www.wikidata.org/entity/Q1471358', 'http://www.wikidata.org/entity/Q16207076', 'http://www.wikidata.org/entity/Q1749974', 'http://www.wikidata.org/entity/Q182692', 'http://www.wikidata.org/entity/Q184768', 'http://www.wikidata.org/entity/Q1968139', 'http://www.wikidata.org/entity/Q202326', 'http://www.wikidata.org/entity/Q2309964', 'http://www.wikidata.org/entity/Q2408534', 'http://www.wikidata.org/entity/Q2547631', 'http://www.wikidata.org/entity/Q28222734', 'http://www.wikidata.org/entity/Q3620669', 'http://www.wikidata.org/entity/Q3993102', 'http://www.wikidata.org/entity/Q4243278', 'http://www.wikidata.org/entity/Q47703', 'http://www.wikidata.org/entity/Q553194', 'http://www.wikidata.org/entity/Q639387', 'http://www.wikidata.org/entity/Q7716410', 'http://www.wikidata.org/entity/Q785351', 'http://www.wikidata.org/entity/Q845102', 'http://www.wikidata.org/entity/Q858584', 'http://www.wikidata.org/entity/Q903257', 'http://www.wikidata.org/entity/Q977372']</t>
         </is>
       </c>
       <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>What is the birth name of Adele?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['Adele Laurie Blue Adkins']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/statement/Q23215-ea8dacde-4d99-d318-439d-df7dcb38a6d4']</t>
+        </is>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>What was the first Queen album?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q193490']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q193490']</t>
+        </is>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Who discovered Ceres?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q14280']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q14280']</t>
+        </is>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q1160813', 'http://www.wikidata.org/entity/Q207954']</t>
+        </is>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>What is the capital of Cameroon?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
+        </is>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Who created Family Guy?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q188492']</t>
+        </is>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Who created Batman?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q313048', 'http://www.wikidata.org/entity/Q464282']</t>
+        </is>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>To which countries does the Himalayan mountain system extend?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+        </is>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>What is the largest country in the world?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q124003554']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q159']</t>
+        </is>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q154804']</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q154804', 'http://www.wikidata.org/entity/Q49738', 'http://www.wikidata.org/entity/Q56230681', 'http://www.wikidata.org/entity/Q56230686']</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Who created Goofy?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q2420722']</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q2420722']</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
         <v>1</v>
       </c>
     </row>
